--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.025829666666667</v>
+        <v>0.3196676666666667</v>
       </c>
       <c r="H2">
-        <v>6.077489</v>
+        <v>0.959003</v>
       </c>
       <c r="I2">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="J2">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>69.93270027752556</v>
+        <v>5.893495289764111</v>
       </c>
       <c r="R2">
-        <v>629.39430249773</v>
+        <v>53.04145760787701</v>
       </c>
       <c r="S2">
-        <v>0.128120319884747</v>
+        <v>0.01676550577120612</v>
       </c>
       <c r="T2">
-        <v>0.128120319884747</v>
+        <v>0.01676550577120611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.025829666666667</v>
+        <v>0.3196676666666667</v>
       </c>
       <c r="H3">
-        <v>6.077489</v>
+        <v>0.959003</v>
       </c>
       <c r="I3">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="J3">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>10.83336386567722</v>
+        <v>1.709460674840556</v>
       </c>
       <c r="R3">
-        <v>97.50027479109499</v>
+        <v>15.385146073565</v>
       </c>
       <c r="S3">
-        <v>0.01984728229269422</v>
+        <v>0.004862983917110479</v>
       </c>
       <c r="T3">
-        <v>0.01984728229269422</v>
+        <v>0.004862983917110479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.025829666666667</v>
+        <v>0.3196676666666667</v>
       </c>
       <c r="H4">
-        <v>6.077489</v>
+        <v>0.959003</v>
       </c>
       <c r="I4">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="J4">
-        <v>0.1667292296771927</v>
+        <v>0.02778181741070332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>10.24077424907289</v>
+        <v>2.163048848221667</v>
       </c>
       <c r="R4">
-        <v>92.16696824165601</v>
+        <v>19.467439633995</v>
       </c>
       <c r="S4">
-        <v>0.01876162749975144</v>
+        <v>0.006153327722386725</v>
       </c>
       <c r="T4">
-        <v>0.01876162749975144</v>
+        <v>0.006153327722386725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.787455999999999</v>
+        <v>5.787456</v>
       </c>
       <c r="H5">
         <v>17.362368</v>
       </c>
       <c r="I5">
-        <v>0.4763174794741613</v>
+        <v>0.5029787577238425</v>
       </c>
       <c r="J5">
-        <v>0.4763174794741612</v>
+        <v>0.5029787577238426</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>199.78600988864</v>
+        <v>106.699388872768</v>
       </c>
       <c r="R5">
-        <v>1798.07408899776</v>
+        <v>960.294499854912</v>
       </c>
       <c r="S5">
-        <v>0.3660182917841061</v>
+        <v>0.3035328157532399</v>
       </c>
       <c r="T5">
-        <v>0.3660182917841061</v>
+        <v>0.3035328157532399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.787455999999999</v>
+        <v>5.787456</v>
       </c>
       <c r="H6">
         <v>17.362368</v>
       </c>
       <c r="I6">
-        <v>0.4763174794741613</v>
+        <v>0.5029787577238425</v>
       </c>
       <c r="J6">
-        <v>0.4763174794741612</v>
+        <v>0.5029787577238426</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
-        <v>30.94910580895999</v>
+        <v>30.94910580896</v>
       </c>
       <c r="R6">
-        <v>278.5419522806399</v>
+        <v>278.54195228064</v>
       </c>
       <c r="S6">
-        <v>0.05670036078479793</v>
+        <v>0.08804239021875179</v>
       </c>
       <c r="T6">
-        <v>0.05670036078479792</v>
+        <v>0.08804239021875179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.787455999999999</v>
+        <v>5.787456</v>
       </c>
       <c r="H7">
         <v>17.362368</v>
       </c>
       <c r="I7">
-        <v>0.4763174794741613</v>
+        <v>0.5029787577238425</v>
       </c>
       <c r="J7">
-        <v>0.4763174794741612</v>
+        <v>0.5029787577238426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>29.256176542208</v>
+        <v>39.16113933408</v>
       </c>
       <c r="R7">
-        <v>263.3055888798719</v>
+        <v>352.45025400672</v>
       </c>
       <c r="S7">
-        <v>0.05359882690525715</v>
+        <v>0.1114035517518508</v>
       </c>
       <c r="T7">
-        <v>0.05359882690525714</v>
+        <v>0.1114035517518508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.337131333333333</v>
+        <v>5.399239000000001</v>
       </c>
       <c r="H8">
-        <v>13.011394</v>
+        <v>16.197717</v>
       </c>
       <c r="I8">
-        <v>0.3569532908486461</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="J8">
-        <v>0.356953290848646</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N8">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q8">
-        <v>149.7200433920644</v>
+        <v>99.54209616073368</v>
       </c>
       <c r="R8">
-        <v>1347.48039052858</v>
+        <v>895.8788654466031</v>
       </c>
       <c r="S8">
-        <v>0.2742948545734066</v>
+        <v>0.2831721254718321</v>
       </c>
       <c r="T8">
-        <v>0.2742948545734065</v>
+        <v>0.2831721254718321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.337131333333333</v>
+        <v>5.399239000000001</v>
       </c>
       <c r="H9">
-        <v>13.011394</v>
+        <v>16.197717</v>
       </c>
       <c r="I9">
-        <v>0.3569532908486461</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="J9">
-        <v>0.356953290848646</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q9">
-        <v>23.19332303220778</v>
+        <v>28.87306946244833</v>
       </c>
       <c r="R9">
-        <v>208.73990728987</v>
+        <v>259.857625162035</v>
       </c>
       <c r="S9">
-        <v>0.04249136604598838</v>
+        <v>0.08213659108981619</v>
       </c>
       <c r="T9">
-        <v>0.04249136604598837</v>
+        <v>0.08213659108981619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.337131333333333</v>
+        <v>5.399239000000001</v>
       </c>
       <c r="H10">
-        <v>13.011394</v>
+        <v>16.197717</v>
       </c>
       <c r="I10">
-        <v>0.3569532908486461</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="J10">
-        <v>0.356953290848646</v>
+        <v>0.4692394248654542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N10">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q10">
-        <v>21.92463838597511</v>
+        <v>36.534247651645</v>
       </c>
       <c r="R10">
-        <v>197.321745473776</v>
+        <v>328.808228864805</v>
       </c>
       <c r="S10">
-        <v>0.04016707022925108</v>
+        <v>0.1039307083038059</v>
       </c>
       <c r="T10">
-        <v>0.04016707022925107</v>
+        <v>0.1039307083038059</v>
       </c>
     </row>
   </sheetData>
